--- a/data/case1/13/P_device_13.xlsx
+++ b/data/case1/13/P_device_13.xlsx
@@ -53,35 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.03142119254962266</v>
+        <v>0.087974784335598757</v>
       </c>
       <c r="B1" s="0">
-        <v>0.031421190542453944</v>
+        <v>-0.087974785859716451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.049892310875431403</v>
+        <v>-0.028603004232630083</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.049892312796447263</v>
+        <v>0.028603002562140486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0085761029505425027</v>
+        <v>-0.0021519143033771728</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0085761049878634154</v>
+        <v>0.0021519127695541224</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.012012106307611056</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.012012107973542895</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.0086647554732060972</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.0086647537959538262</v>
       </c>
     </row>
   </sheetData>
